--- a/Data/Message/Message.xlsx
+++ b/Data/Message/Message.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\Test2\Data\Message\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C3F8D4-E072-4B47-BB0E-C4CC866DFD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDFB50E-8A63-4DA2-8575-B85632F65C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Chinese</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,38 @@
   </si>
   <si>
     <t>旧的存档会消失。确定吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lisa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhangsan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lisi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽萨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +644,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -627,46 +659,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Message/Message.xlsx
+++ b/Data/Message/Message.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDFB50E-8A63-4DA2-8575-B85632F65C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B880C76-2715-4003-806F-6D2AEECB3846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
     <sheet name="Name" sheetId="2" r:id="rId2"/>
+    <sheet name="Msg" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Chinese</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,14 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lisa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Zhangsan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,19 +145,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杰克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丽萨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wangwu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Story00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我喜欢你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I like you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是个好人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是富二代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那都好说</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +528,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -641,13 +676,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B62CF3F-A35A-43A0-ACCE-248EE3EC8B3D}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -662,7 +701,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -673,7 +712,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -681,24 +720,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -706,4 +734,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B97B5F9-1BDB-4676-B0E4-B98D9A123748}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Message/Message.xlsx
+++ b/Data/Message/Message.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B880C76-2715-4003-806F-6D2AEECB3846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0647BB-9B79-47C3-A864-D66681F35821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Chinese</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,10 @@
   </si>
   <si>
     <t>那都好说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a12313</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -548,122 +552,133 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>1231</v>
+      </c>
+      <c r="C2">
+        <v>123123</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -740,7 +755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B97B5F9-1BDB-4676-B0E4-B98D9A123748}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/Data/Message/Message.xlsx
+++ b/Data/Message/Message.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Message\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity Projects\ExcelBuilder\Data\Message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0647BB-9B79-47C3-A864-D66681F35821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D81F17-567E-453D-8DAD-6F73F2CFF142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UI" sheetId="1" r:id="rId1"/>
+    <sheet name="UI2" sheetId="1" r:id="rId1"/>
     <sheet name="Name" sheetId="2" r:id="rId2"/>
     <sheet name="Msg" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -215,13 +215,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -535,14 +535,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="3" max="3" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -561,7 +561,7 @@
         <v>123123</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -572,7 +572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -583,7 +583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -594,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -605,7 +605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -616,7 +616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -627,7 +627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -638,7 +638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -660,7 +660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -671,7 +671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -697,13 +697,13 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -722,7 +722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -733,7 +733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -759,13 +759,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -773,7 +773,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -784,7 +784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -795,7 +795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -806,7 +806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>42</v>
       </c>

--- a/Data/Message/Message.xlsx
+++ b/Data/Message/Message.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity Projects\ExcelBuilder\Data\Message\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D81F17-567E-453D-8DAD-6F73F2CFF142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0647BB-9B79-47C3-A864-D66681F35821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UI2" sheetId="1" r:id="rId1"/>
+    <sheet name="UI" sheetId="1" r:id="rId1"/>
     <sheet name="Name" sheetId="2" r:id="rId2"/>
     <sheet name="Msg" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -215,13 +215,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -535,14 +535,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="3" max="3" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -561,7 +561,7 @@
         <v>123123</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -572,7 +572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -583,7 +583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -594,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -605,7 +605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -616,7 +616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -627,7 +627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -638,7 +638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -660,7 +660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -671,7 +671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -697,13 +697,13 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -722,7 +722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -733,7 +733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -759,13 +759,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -773,7 +773,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -784,7 +784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -795,7 +795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -806,7 +806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
